--- a/Excel Files/Scenario 17/Scenario 17_ TC006/Expected Contract Route Parts Overview.xlsx
+++ b/Excel Files/Scenario 17/Scenario 17_ TC006/Expected Contract Route Parts Overview.xlsx
@@ -115,33 +115,42 @@
     <t/>
   </si>
   <si>
-    <t>CR-PK-CUS-POC-2310038</t>
-  </si>
-  <si>
-    <t>s1702</t>
+    <t>CR-PK-CUS-POC-2310041</t>
+  </si>
+  <si>
+    <t>s1704</t>
   </si>
   <si>
     <t>PK-CUS-POC</t>
   </si>
   <si>
+    <t>scenario1720230604001</t>
+  </si>
+  <si>
+    <t>PK-CUS-scenario17-20230604-001</t>
+  </si>
+  <si>
+    <t>PKSUPTOPKCUS17001-s1704-004</t>
+  </si>
+  <si>
+    <t>PK-SUP-POC</t>
+  </si>
+  <si>
+    <t>PK-SUP-scenario17-20230604-001</t>
+  </si>
+  <si>
+    <t>S17_PKSUP-PKCUS</t>
+  </si>
+  <si>
     <t>scenario1720230604003</t>
   </si>
   <si>
     <t>PK-CUS-scenario17-20230604-003</t>
   </si>
   <si>
-    <t>PKSUPTOPKCUS17001-s1702-002</t>
-  </si>
-  <si>
-    <t>PK-SUP-POC</t>
-  </si>
-  <si>
     <t>PK-SUP-scenario17-20230604-003</t>
   </si>
   <si>
-    <t>S17_PKSUP-PKCUS</t>
-  </si>
-  <si>
     <t>scenario1720230604002</t>
   </si>
   <si>
@@ -158,15 +167,6 @@
   </si>
   <si>
     <t>PK-SUP-scenario17-20230604-004</t>
-  </si>
-  <si>
-    <t>scenario1720230604001</t>
-  </si>
-  <si>
-    <t>PK-CUS-scenario17-20230604-001</t>
-  </si>
-  <si>
-    <t>PK-SUP-scenario17-20230604-001</t>
   </si>
 </sst>
 </file>
